--- a/doc/数值设计.xlsx
+++ b/doc/数值设计.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27705" windowHeight="9195"/>
+    <workbookView windowWidth="22695" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="装备" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="人物成长" sheetId="2" r:id="rId2"/>
+    <sheet name="武器熟练度" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="129">
   <si>
     <t xml:space="preserve">四围 </t>
   </si>
@@ -36,6 +36,24 @@
     <t>名称</t>
   </si>
   <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>类型2</t>
+  </si>
+  <si>
+    <t>级别</t>
+  </si>
+  <si>
+    <t>稀有度</t>
+  </si>
+  <si>
+    <t>基数</t>
+  </si>
+  <si>
+    <t>技能</t>
+  </si>
+  <si>
     <t>悟性</t>
   </si>
   <si>
@@ -97,6 +115,294 @@
   </si>
   <si>
     <t>法力回复</t>
+  </si>
+  <si>
+    <t>布衣</t>
+  </si>
+  <si>
+    <t>衣服</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>☆</t>
+  </si>
+  <si>
+    <t>精制布衣</t>
+  </si>
+  <si>
+    <t>☆☆</t>
+  </si>
+  <si>
+    <t>蛇皮裘</t>
+  </si>
+  <si>
+    <t>☆☆☆</t>
+  </si>
+  <si>
+    <t>虎皮衣</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>开阳衣</t>
+  </si>
+  <si>
+    <t>金蝉衣</t>
+  </si>
+  <si>
+    <t>金锁子甲</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>鸾暮铠</t>
+  </si>
+  <si>
+    <t>破军无双</t>
+  </si>
+  <si>
+    <t>血战八方</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>六合纵横</t>
+  </si>
+  <si>
+    <t>少林袈裟</t>
+  </si>
+  <si>
+    <t>软猬甲</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>草鞋</t>
+  </si>
+  <si>
+    <t>鞋子</t>
+  </si>
+  <si>
+    <t>布鞋</t>
+  </si>
+  <si>
+    <t>武僧鞋</t>
+  </si>
+  <si>
+    <t>神行鞋</t>
+  </si>
+  <si>
+    <t>踏风靴</t>
+  </si>
+  <si>
+    <t>龙骨靴</t>
+  </si>
+  <si>
+    <t>青冥靴</t>
+  </si>
+  <si>
+    <t>无极靴</t>
+  </si>
+  <si>
+    <t>苍蟒护腕</t>
+  </si>
+  <si>
+    <t>副手</t>
+  </si>
+  <si>
+    <t>纱绒护腕</t>
+  </si>
+  <si>
+    <t>彩云腕</t>
+  </si>
+  <si>
+    <t>精钢护腕</t>
+  </si>
+  <si>
+    <t>霓云手套</t>
+  </si>
+  <si>
+    <t>天璇护腕</t>
+  </si>
+  <si>
+    <t>追月手</t>
+  </si>
+  <si>
+    <t>天玑毒掌</t>
+  </si>
+  <si>
+    <t>踏风冰手</t>
+  </si>
+  <si>
+    <t>魔影炎掌</t>
+  </si>
+  <si>
+    <t>无魅雷手</t>
+  </si>
+  <si>
+    <t>护身符</t>
+  </si>
+  <si>
+    <t>饰品</t>
+  </si>
+  <si>
+    <t>环戒</t>
+  </si>
+  <si>
+    <t>琥珀项链</t>
+  </si>
+  <si>
+    <t>水碧护符</t>
+  </si>
+  <si>
+    <t>梦蝶项链</t>
+  </si>
+  <si>
+    <t>青竹戒指</t>
+  </si>
+  <si>
+    <t>蓝魔项链</t>
+  </si>
+  <si>
+    <t>北斗护符</t>
+  </si>
+  <si>
+    <t>影岚护符</t>
+  </si>
+  <si>
+    <t>七绝护符</t>
+  </si>
+  <si>
+    <t>玉修护符</t>
+  </si>
+  <si>
+    <t>云灭护符</t>
+  </si>
+  <si>
+    <t>抗魔护符</t>
+  </si>
+  <si>
+    <t>重生链</t>
+  </si>
+  <si>
+    <t>神迹戒</t>
+  </si>
+  <si>
+    <t>如意戒</t>
+  </si>
+  <si>
+    <t>绿扳指</t>
+  </si>
+  <si>
+    <t>九指流星</t>
+  </si>
+  <si>
+    <t>乾坤青光</t>
+  </si>
+  <si>
+    <t>破军帽</t>
+  </si>
+  <si>
+    <t>套装</t>
+  </si>
+  <si>
+    <t>破军鞋</t>
+  </si>
+  <si>
+    <t>菩提月闵盔</t>
+  </si>
+  <si>
+    <t>菩提月闵甲</t>
+  </si>
+  <si>
+    <t>菩提月闵鞋</t>
+  </si>
+  <si>
+    <t>九阳碧麟盔</t>
+  </si>
+  <si>
+    <t>九阳碧麟腕</t>
+  </si>
+  <si>
+    <t>九阳碧麟靴</t>
+  </si>
+  <si>
+    <t>霸主胸甲</t>
+  </si>
+  <si>
+    <t>霸主盔</t>
+  </si>
+  <si>
+    <t>霸主靴</t>
+  </si>
+  <si>
+    <t>青铜刀</t>
+  </si>
+  <si>
+    <t>武器</t>
+  </si>
+  <si>
+    <t>刀</t>
+  </si>
+  <si>
+    <t>锁喉</t>
+  </si>
+  <si>
+    <t>枪棒</t>
+  </si>
+  <si>
+    <t>桃木剑</t>
+  </si>
+  <si>
+    <t>剑</t>
+  </si>
+  <si>
+    <t>秋叶刃</t>
+  </si>
+  <si>
+    <t>点金</t>
+  </si>
+  <si>
+    <t>饮血</t>
+  </si>
+  <si>
+    <t>断肠</t>
+  </si>
+  <si>
+    <t>青锋剑</t>
+  </si>
+  <si>
+    <t>鸳鸯刀</t>
+  </si>
+  <si>
+    <t>紫金刀</t>
+  </si>
+  <si>
+    <t>龙鳞剑</t>
+  </si>
+  <si>
+    <t>打狗棒</t>
+  </si>
+  <si>
+    <t>屠龙刀</t>
+  </si>
+  <si>
+    <t>倚天剑</t>
+  </si>
+  <si>
+    <t>等级</t>
+  </si>
+  <si>
+    <t>生命</t>
+  </si>
+  <si>
+    <t>法力</t>
   </si>
 </sst>
 </file>
@@ -109,7 +415,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,14 +433,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,14 +447,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -169,9 +484,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -179,7 +493,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,14 +530,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -232,9 +546,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,13 +561,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -263,15 +570,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,13 +585,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -304,25 +597,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -334,13 +693,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -352,97 +729,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -460,13 +747,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,6 +790,32 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,21 +853,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -566,173 +876,159 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1085,51 +1381,52 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:V2"/>
+  <dimension ref="A1:AB78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:V1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="11" max="11" width="15.75" customWidth="1"/>
+    <col min="1" max="1" width="11.7583333333333" customWidth="1"/>
+    <col min="17" max="17" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:22">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="8:28">
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-    </row>
-    <row r="2" spans="1:22">
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+    </row>
+    <row r="2" ht="15" customHeight="1" spans="1:28">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1196,14 +1493,1177 @@
       <c r="V2" t="s">
         <v>26</v>
       </c>
+      <c r="W2" t="s">
+        <v>27</v>
+      </c>
+      <c r="X2" t="s">
+        <v>28</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>31</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10">
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13">
+        <v>19.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" t="s">
+        <v>40</v>
+      </c>
+      <c r="F15">
+        <v>37.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B17" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B21" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" t="s">
+        <v>46</v>
+      </c>
+      <c r="E21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B26" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D27" t="s">
+        <v>42</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" t="s">
+        <v>42</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D29" t="s">
+        <v>46</v>
+      </c>
+      <c r="E29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D30" t="s">
+        <v>46</v>
+      </c>
+      <c r="E30" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>72</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="D31" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" t="s">
+        <v>77</v>
+      </c>
+      <c r="D35" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D36" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" t="s">
+        <v>35</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" t="s">
+        <v>80</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="D38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" t="s">
+        <v>81</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s">
+        <v>77</v>
+      </c>
+      <c r="D40" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" t="s">
+        <v>77</v>
+      </c>
+      <c r="D41" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" t="s">
+        <v>84</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42" t="s">
+        <v>42</v>
+      </c>
+      <c r="E42" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+      <c r="D43" t="s">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" t="s">
+        <v>42</v>
+      </c>
+      <c r="E44" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" t="s">
+        <v>46</v>
+      </c>
+      <c r="E45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" t="s">
+        <v>77</v>
+      </c>
+      <c r="D46" t="s">
+        <v>46</v>
+      </c>
+      <c r="E46" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" t="s">
+        <v>77</v>
+      </c>
+      <c r="D48" t="s">
+        <v>46</v>
+      </c>
+      <c r="E48" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" t="s">
+        <v>91</v>
+      </c>
+      <c r="B49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" t="s">
+        <v>92</v>
+      </c>
+      <c r="B50" t="s">
+        <v>77</v>
+      </c>
+      <c r="D50" t="s">
+        <v>50</v>
+      </c>
+      <c r="E50" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" t="s">
+        <v>93</v>
+      </c>
+      <c r="B51" t="s">
+        <v>77</v>
+      </c>
+      <c r="D51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="D52" t="s">
+        <v>54</v>
+      </c>
+      <c r="E52" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D53" t="s">
+        <v>54</v>
+      </c>
+      <c r="E53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" t="s">
+        <v>96</v>
+      </c>
+      <c r="B54" t="s">
+        <v>97</v>
+      </c>
+      <c r="D54" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57" t="s">
+        <v>97</v>
+      </c>
+      <c r="D57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" t="s">
+        <v>101</v>
+      </c>
+      <c r="B58" t="s">
+        <v>97</v>
+      </c>
+      <c r="D58" t="s">
+        <v>42</v>
+      </c>
+      <c r="E58" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" t="s">
+        <v>102</v>
+      </c>
+      <c r="B59" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" t="s">
+        <v>103</v>
+      </c>
+      <c r="B60" t="s">
+        <v>97</v>
+      </c>
+      <c r="D60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" t="s">
+        <v>104</v>
+      </c>
+      <c r="B61" t="s">
+        <v>97</v>
+      </c>
+      <c r="D61" t="s">
+        <v>46</v>
+      </c>
+      <c r="E61" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" t="s">
+        <v>105</v>
+      </c>
+      <c r="B62" t="s">
+        <v>97</v>
+      </c>
+      <c r="D62" t="s">
+        <v>50</v>
+      </c>
+      <c r="E62" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" t="s">
+        <v>106</v>
+      </c>
+      <c r="B63" t="s">
+        <v>97</v>
+      </c>
+      <c r="D63" t="s">
+        <v>50</v>
+      </c>
+      <c r="E63" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" t="s">
+        <v>107</v>
+      </c>
+      <c r="B64" t="s">
+        <v>97</v>
+      </c>
+      <c r="D64" t="s">
+        <v>50</v>
+      </c>
+      <c r="E64" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" t="s">
+        <v>108</v>
+      </c>
+      <c r="B65" t="s">
+        <v>109</v>
+      </c>
+      <c r="C65" t="s">
+        <v>110</v>
+      </c>
+      <c r="D65" t="s">
+        <v>35</v>
+      </c>
+      <c r="E65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" t="s">
+        <v>111</v>
+      </c>
+      <c r="B66" t="s">
+        <v>109</v>
+      </c>
+      <c r="C66" t="s">
+        <v>112</v>
+      </c>
+      <c r="D66" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" t="s">
+        <v>113</v>
+      </c>
+      <c r="B67" t="s">
+        <v>109</v>
+      </c>
+      <c r="C67" t="s">
+        <v>114</v>
+      </c>
+      <c r="D67" t="s">
+        <v>35</v>
+      </c>
+      <c r="E67" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" t="s">
+        <v>115</v>
+      </c>
+      <c r="B68" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" t="s">
+        <v>110</v>
+      </c>
+      <c r="D68" t="s">
+        <v>42</v>
+      </c>
+      <c r="E68" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" t="s">
+        <v>116</v>
+      </c>
+      <c r="B69" t="s">
+        <v>109</v>
+      </c>
+      <c r="C69" t="s">
+        <v>112</v>
+      </c>
+      <c r="D69" t="s">
+        <v>42</v>
+      </c>
+      <c r="E69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70" t="s">
+        <v>109</v>
+      </c>
+      <c r="C70" t="s">
+        <v>112</v>
+      </c>
+      <c r="D70" t="s">
+        <v>46</v>
+      </c>
+      <c r="E70" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" t="s">
+        <v>118</v>
+      </c>
+      <c r="B71" t="s">
+        <v>109</v>
+      </c>
+      <c r="C71" t="s">
+        <v>112</v>
+      </c>
+      <c r="D71" t="s">
+        <v>46</v>
+      </c>
+      <c r="E71" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" t="s">
+        <v>119</v>
+      </c>
+      <c r="B72" t="s">
+        <v>109</v>
+      </c>
+      <c r="C72" t="s">
+        <v>114</v>
+      </c>
+      <c r="D72" t="s">
+        <v>46</v>
+      </c>
+      <c r="E72" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" t="s">
+        <v>109</v>
+      </c>
+      <c r="C73" t="s">
+        <v>110</v>
+      </c>
+      <c r="D73" t="s">
+        <v>50</v>
+      </c>
+      <c r="E73" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" t="s">
+        <v>121</v>
+      </c>
+      <c r="B74" t="s">
+        <v>109</v>
+      </c>
+      <c r="C74" t="s">
+        <v>110</v>
+      </c>
+      <c r="D74" t="s">
+        <v>50</v>
+      </c>
+      <c r="E74" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" t="s">
+        <v>122</v>
+      </c>
+      <c r="B75" t="s">
+        <v>109</v>
+      </c>
+      <c r="C75" t="s">
+        <v>114</v>
+      </c>
+      <c r="D75" t="s">
+        <v>50</v>
+      </c>
+      <c r="E75" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" t="s">
+        <v>123</v>
+      </c>
+      <c r="B76" t="s">
+        <v>109</v>
+      </c>
+      <c r="C76" t="s">
+        <v>112</v>
+      </c>
+      <c r="D76" t="s">
+        <v>54</v>
+      </c>
+      <c r="E76" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" t="s">
+        <v>124</v>
+      </c>
+      <c r="B77" t="s">
+        <v>109</v>
+      </c>
+      <c r="C77" t="s">
+        <v>110</v>
+      </c>
+      <c r="D77" t="s">
+        <v>54</v>
+      </c>
+      <c r="E77" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" t="s">
+        <v>125</v>
+      </c>
+      <c r="B78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C78" t="s">
+        <v>114</v>
+      </c>
+      <c r="D78" t="s">
+        <v>54</v>
+      </c>
+      <c r="E78" t="s">
+        <v>40</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:N1"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="U1:Y1"/>
+    <mergeCell ref="Z1:AB1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1214,14 +2674,538 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1">
+      <c r="A77">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1">
+      <c r="A78">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1">
+      <c r="A79">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1">
+      <c r="A81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1">
+      <c r="A82">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1">
+      <c r="A83">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1">
+      <c r="A84">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1">
+      <c r="A85">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1">
+      <c r="A86">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1">
+      <c r="A87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1">
+      <c r="A88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1">
+      <c r="A89">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1">
+      <c r="A90">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1">
+      <c r="A91">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1">
+      <c r="A92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1">
+      <c r="A93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1">
+      <c r="A94">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1">
+      <c r="A95">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1">
+      <c r="A96">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1">
+      <c r="A97">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1">
+      <c r="A98">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1">
+      <c r="A99">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1">
+      <c r="A100">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1">
+      <c r="A101">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/doc/数值设计.xlsx
+++ b/doc/数值设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18120" windowHeight="12390"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="装备" sheetId="1" r:id="rId1"/>
@@ -446,11 +446,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -477,7 +477,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -497,23 +504,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -522,22 +515,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -583,6 +560,22 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -592,7 +585,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -629,30 +629,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -665,31 +641,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,7 +665,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,85 +779,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -809,7 +803,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -820,24 +820,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -871,17 +853,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -910,6 +886,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -928,10 +928,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -940,153 +940,156 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+  </cellStyleXfs>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-  </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2286,304 +2289,304 @@
                       <c:pt idx="99">
                         <c:v>100</c:v>
                       </c:pt>
-                      <c:pt idx="100" c:formatCode="0.0_ ">
+                      <c:pt idx="100">
                         <c:v>530</c:v>
                       </c:pt>
-                      <c:pt idx="101" c:formatCode="0.0_ ">
+                      <c:pt idx="101">
                         <c:v>654</c:v>
                       </c:pt>
-                      <c:pt idx="102" c:formatCode="0.0_ ">
+                      <c:pt idx="102">
                         <c:v>784</c:v>
                       </c:pt>
-                      <c:pt idx="103" c:formatCode="0.0_ ">
+                      <c:pt idx="103">
                         <c:v>920</c:v>
                       </c:pt>
-                      <c:pt idx="104" c:formatCode="0.0_ ">
+                      <c:pt idx="104">
                         <c:v>1062</c:v>
                       </c:pt>
-                      <c:pt idx="105" c:formatCode="0.0_ ">
+                      <c:pt idx="105">
                         <c:v>1210</c:v>
                       </c:pt>
-                      <c:pt idx="106" c:formatCode="0.0_ ">
+                      <c:pt idx="106">
                         <c:v>1364</c:v>
                       </c:pt>
-                      <c:pt idx="107" c:formatCode="0.0_ ">
+                      <c:pt idx="107">
                         <c:v>1524</c:v>
                       </c:pt>
-                      <c:pt idx="108" c:formatCode="0.0_ ">
+                      <c:pt idx="108">
                         <c:v>1690</c:v>
                       </c:pt>
-                      <c:pt idx="109" c:formatCode="0.0_ ">
+                      <c:pt idx="109">
                         <c:v>1862</c:v>
                       </c:pt>
-                      <c:pt idx="110" c:formatCode="0.0_ ">
+                      <c:pt idx="110">
                         <c:v>2040</c:v>
                       </c:pt>
-                      <c:pt idx="111" c:formatCode="0.0_ ">
+                      <c:pt idx="111">
                         <c:v>2224</c:v>
                       </c:pt>
-                      <c:pt idx="112" c:formatCode="0.0_ ">
+                      <c:pt idx="112">
                         <c:v>2414</c:v>
                       </c:pt>
-                      <c:pt idx="113" c:formatCode="0.0_ ">
+                      <c:pt idx="113">
                         <c:v>2610</c:v>
                       </c:pt>
-                      <c:pt idx="114" c:formatCode="0.0_ ">
+                      <c:pt idx="114">
                         <c:v>2812</c:v>
                       </c:pt>
-                      <c:pt idx="115" c:formatCode="0.0_ ">
+                      <c:pt idx="115">
                         <c:v>3020</c:v>
                       </c:pt>
-                      <c:pt idx="116" c:formatCode="0.0_ ">
+                      <c:pt idx="116">
                         <c:v>3234</c:v>
                       </c:pt>
-                      <c:pt idx="117" c:formatCode="0.0_ ">
+                      <c:pt idx="117">
                         <c:v>3454</c:v>
                       </c:pt>
-                      <c:pt idx="118" c:formatCode="0.0_ ">
+                      <c:pt idx="118">
                         <c:v>3680</c:v>
                       </c:pt>
-                      <c:pt idx="119" c:formatCode="0.0_ ">
+                      <c:pt idx="119">
                         <c:v>3912</c:v>
                       </c:pt>
-                      <c:pt idx="120" c:formatCode="0.0_ ">
+                      <c:pt idx="120">
                         <c:v>4150</c:v>
                       </c:pt>
-                      <c:pt idx="121" c:formatCode="0.0_ ">
+                      <c:pt idx="121">
                         <c:v>4394</c:v>
                       </c:pt>
-                      <c:pt idx="122" c:formatCode="0.0_ ">
+                      <c:pt idx="122">
                         <c:v>4644</c:v>
                       </c:pt>
-                      <c:pt idx="123" c:formatCode="0.0_ ">
+                      <c:pt idx="123">
                         <c:v>4900</c:v>
                       </c:pt>
-                      <c:pt idx="124" c:formatCode="0.0_ ">
+                      <c:pt idx="124">
                         <c:v>5162</c:v>
                       </c:pt>
-                      <c:pt idx="125" c:formatCode="0.0_ ">
+                      <c:pt idx="125">
                         <c:v>5430</c:v>
                       </c:pt>
-                      <c:pt idx="126" c:formatCode="0.0_ ">
+                      <c:pt idx="126">
                         <c:v>5704</c:v>
                       </c:pt>
-                      <c:pt idx="127" c:formatCode="0.0_ ">
+                      <c:pt idx="127">
                         <c:v>5984</c:v>
                       </c:pt>
-                      <c:pt idx="128" c:formatCode="0.0_ ">
+                      <c:pt idx="128">
                         <c:v>6270</c:v>
                       </c:pt>
-                      <c:pt idx="129" c:formatCode="0.0_ ">
+                      <c:pt idx="129">
                         <c:v>6562</c:v>
                       </c:pt>
-                      <c:pt idx="130" c:formatCode="0.0_ ">
+                      <c:pt idx="130">
                         <c:v>6860</c:v>
                       </c:pt>
-                      <c:pt idx="131" c:formatCode="0.0_ ">
+                      <c:pt idx="131">
                         <c:v>7164</c:v>
                       </c:pt>
-                      <c:pt idx="132" c:formatCode="0.0_ ">
+                      <c:pt idx="132">
                         <c:v>7474</c:v>
                       </c:pt>
-                      <c:pt idx="133" c:formatCode="0.0_ ">
+                      <c:pt idx="133">
                         <c:v>7790</c:v>
                       </c:pt>
-                      <c:pt idx="134" c:formatCode="0.0_ ">
+                      <c:pt idx="134">
                         <c:v>8112</c:v>
                       </c:pt>
-                      <c:pt idx="135" c:formatCode="0.0_ ">
+                      <c:pt idx="135">
                         <c:v>8440</c:v>
                       </c:pt>
-                      <c:pt idx="136" c:formatCode="0.0_ ">
+                      <c:pt idx="136">
                         <c:v>8774</c:v>
                       </c:pt>
-                      <c:pt idx="137" c:formatCode="0.0_ ">
+                      <c:pt idx="137">
                         <c:v>9114</c:v>
                       </c:pt>
-                      <c:pt idx="138" c:formatCode="0.0_ ">
+                      <c:pt idx="138">
                         <c:v>9460</c:v>
                       </c:pt>
-                      <c:pt idx="139" c:formatCode="0.0_ ">
+                      <c:pt idx="139">
                         <c:v>9812</c:v>
                       </c:pt>
-                      <c:pt idx="140" c:formatCode="0.0_ ">
+                      <c:pt idx="140">
                         <c:v>10170</c:v>
                       </c:pt>
-                      <c:pt idx="141" c:formatCode="0.0_ ">
+                      <c:pt idx="141">
                         <c:v>10534</c:v>
                       </c:pt>
-                      <c:pt idx="142" c:formatCode="0.0_ ">
+                      <c:pt idx="142">
                         <c:v>10904</c:v>
                       </c:pt>
-                      <c:pt idx="143" c:formatCode="0.0_ ">
+                      <c:pt idx="143">
                         <c:v>11280</c:v>
                       </c:pt>
-                      <c:pt idx="144" c:formatCode="0.0_ ">
+                      <c:pt idx="144">
                         <c:v>11662</c:v>
                       </c:pt>
-                      <c:pt idx="145" c:formatCode="0.0_ ">
+                      <c:pt idx="145">
                         <c:v>12050</c:v>
                       </c:pt>
-                      <c:pt idx="146" c:formatCode="0.0_ ">
+                      <c:pt idx="146">
                         <c:v>12444</c:v>
                       </c:pt>
-                      <c:pt idx="147" c:formatCode="0.0_ ">
+                      <c:pt idx="147">
                         <c:v>12844</c:v>
                       </c:pt>
-                      <c:pt idx="148" c:formatCode="0.0_ ">
+                      <c:pt idx="148">
                         <c:v>13250</c:v>
                       </c:pt>
-                      <c:pt idx="149" c:formatCode="0.0_ ">
+                      <c:pt idx="149">
                         <c:v>13662</c:v>
                       </c:pt>
-                      <c:pt idx="150" c:formatCode="0.0_ ">
+                      <c:pt idx="150">
                         <c:v>14080</c:v>
                       </c:pt>
-                      <c:pt idx="151" c:formatCode="0.0_ ">
+                      <c:pt idx="151">
                         <c:v>14504</c:v>
                       </c:pt>
-                      <c:pt idx="152" c:formatCode="0.0_ ">
+                      <c:pt idx="152">
                         <c:v>14934</c:v>
                       </c:pt>
-                      <c:pt idx="153" c:formatCode="0.0_ ">
+                      <c:pt idx="153">
                         <c:v>15370</c:v>
                       </c:pt>
-                      <c:pt idx="154" c:formatCode="0.0_ ">
+                      <c:pt idx="154">
                         <c:v>15812</c:v>
                       </c:pt>
-                      <c:pt idx="155" c:formatCode="0.0_ ">
+                      <c:pt idx="155">
                         <c:v>16260</c:v>
                       </c:pt>
-                      <c:pt idx="156" c:formatCode="0.0_ ">
+                      <c:pt idx="156">
                         <c:v>16714</c:v>
                       </c:pt>
-                      <c:pt idx="157" c:formatCode="0.0_ ">
+                      <c:pt idx="157">
                         <c:v>17174</c:v>
                       </c:pt>
-                      <c:pt idx="158" c:formatCode="0.0_ ">
+                      <c:pt idx="158">
                         <c:v>17640</c:v>
                       </c:pt>
-                      <c:pt idx="159" c:formatCode="0.0_ ">
+                      <c:pt idx="159">
                         <c:v>18112</c:v>
                       </c:pt>
-                      <c:pt idx="160" c:formatCode="0.0_ ">
+                      <c:pt idx="160">
                         <c:v>18590</c:v>
                       </c:pt>
-                      <c:pt idx="161" c:formatCode="0.0_ ">
+                      <c:pt idx="161">
                         <c:v>19074</c:v>
                       </c:pt>
-                      <c:pt idx="162" c:formatCode="0.0_ ">
+                      <c:pt idx="162">
                         <c:v>19564</c:v>
                       </c:pt>
-                      <c:pt idx="163" c:formatCode="0.0_ ">
+                      <c:pt idx="163">
                         <c:v>20060</c:v>
                       </c:pt>
-                      <c:pt idx="164" c:formatCode="0.0_ ">
+                      <c:pt idx="164">
                         <c:v>20562</c:v>
                       </c:pt>
-                      <c:pt idx="165" c:formatCode="0.0_ ">
+                      <c:pt idx="165">
                         <c:v>21070</c:v>
                       </c:pt>
-                      <c:pt idx="166" c:formatCode="0.0_ ">
+                      <c:pt idx="166">
                         <c:v>21584</c:v>
                       </c:pt>
-                      <c:pt idx="167" c:formatCode="0.0_ ">
+                      <c:pt idx="167">
                         <c:v>22104</c:v>
                       </c:pt>
-                      <c:pt idx="168" c:formatCode="0.0_ ">
+                      <c:pt idx="168">
                         <c:v>22630</c:v>
                       </c:pt>
-                      <c:pt idx="169" c:formatCode="0.0_ ">
+                      <c:pt idx="169">
                         <c:v>23162</c:v>
                       </c:pt>
-                      <c:pt idx="170" c:formatCode="0.0_ ">
+                      <c:pt idx="170">
                         <c:v>23700</c:v>
                       </c:pt>
-                      <c:pt idx="171" c:formatCode="0.0_ ">
+                      <c:pt idx="171">
                         <c:v>24244</c:v>
                       </c:pt>
-                      <c:pt idx="172" c:formatCode="0.0_ ">
+                      <c:pt idx="172">
                         <c:v>24794</c:v>
                       </c:pt>
-                      <c:pt idx="173" c:formatCode="0.0_ ">
+                      <c:pt idx="173">
                         <c:v>25350</c:v>
                       </c:pt>
-                      <c:pt idx="174" c:formatCode="0.0_ ">
+                      <c:pt idx="174">
                         <c:v>25912</c:v>
                       </c:pt>
-                      <c:pt idx="175" c:formatCode="0.0_ ">
+                      <c:pt idx="175">
                         <c:v>26480</c:v>
                       </c:pt>
-                      <c:pt idx="176" c:formatCode="0.0_ ">
+                      <c:pt idx="176">
                         <c:v>27054</c:v>
                       </c:pt>
-                      <c:pt idx="177" c:formatCode="0.0_ ">
+                      <c:pt idx="177">
                         <c:v>27634</c:v>
                       </c:pt>
-                      <c:pt idx="178" c:formatCode="0.0_ ">
+                      <c:pt idx="178">
                         <c:v>28220</c:v>
                       </c:pt>
-                      <c:pt idx="179" c:formatCode="0.0_ ">
+                      <c:pt idx="179">
                         <c:v>28812</c:v>
                       </c:pt>
-                      <c:pt idx="180" c:formatCode="0.0_ ">
+                      <c:pt idx="180">
                         <c:v>29410</c:v>
                       </c:pt>
-                      <c:pt idx="181" c:formatCode="0.0_ ">
+                      <c:pt idx="181">
                         <c:v>30014</c:v>
                       </c:pt>
-                      <c:pt idx="182" c:formatCode="0.0_ ">
+                      <c:pt idx="182">
                         <c:v>30624</c:v>
                       </c:pt>
-                      <c:pt idx="183" c:formatCode="0.0_ ">
+                      <c:pt idx="183">
                         <c:v>31240</c:v>
                       </c:pt>
-                      <c:pt idx="184" c:formatCode="0.0_ ">
+                      <c:pt idx="184">
                         <c:v>31862</c:v>
                       </c:pt>
-                      <c:pt idx="185" c:formatCode="0.0_ ">
+                      <c:pt idx="185">
                         <c:v>32490</c:v>
                       </c:pt>
-                      <c:pt idx="186" c:formatCode="0.0_ ">
+                      <c:pt idx="186">
                         <c:v>33124</c:v>
                       </c:pt>
-                      <c:pt idx="187" c:formatCode="0.0_ ">
+                      <c:pt idx="187">
                         <c:v>33764</c:v>
                       </c:pt>
-                      <c:pt idx="188" c:formatCode="0.0_ ">
+                      <c:pt idx="188">
                         <c:v>34410</c:v>
                       </c:pt>
-                      <c:pt idx="189" c:formatCode="0.0_ ">
+                      <c:pt idx="189">
                         <c:v>35062</c:v>
                       </c:pt>
-                      <c:pt idx="190" c:formatCode="0.0_ ">
+                      <c:pt idx="190">
                         <c:v>35720</c:v>
                       </c:pt>
-                      <c:pt idx="191" c:formatCode="0.0_ ">
+                      <c:pt idx="191">
                         <c:v>36384</c:v>
                       </c:pt>
-                      <c:pt idx="192" c:formatCode="0.0_ ">
+                      <c:pt idx="192">
                         <c:v>37054</c:v>
                       </c:pt>
-                      <c:pt idx="193" c:formatCode="0.0_ ">
+                      <c:pt idx="193">
                         <c:v>37730</c:v>
                       </c:pt>
-                      <c:pt idx="194" c:formatCode="0.0_ ">
+                      <c:pt idx="194">
                         <c:v>38412</c:v>
                       </c:pt>
-                      <c:pt idx="195" c:formatCode="0.0_ ">
+                      <c:pt idx="195">
                         <c:v>39100</c:v>
                       </c:pt>
-                      <c:pt idx="196" c:formatCode="0.0_ ">
+                      <c:pt idx="196">
                         <c:v>39794</c:v>
                       </c:pt>
-                      <c:pt idx="197" c:formatCode="0.0_ ">
+                      <c:pt idx="197">
                         <c:v>40494</c:v>
                       </c:pt>
-                      <c:pt idx="198" c:formatCode="0.0_ ">
+                      <c:pt idx="198">
                         <c:v>41200</c:v>
                       </c:pt>
-                      <c:pt idx="199" c:formatCode="0.0_ ">
+                      <c:pt idx="199">
                         <c:v>41912</c:v>
                       </c:pt>
                     </c:numCache>
@@ -4797,10 +4800,10 @@
   <sheetPr/>
   <dimension ref="A1:AC78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="K34" sqref="K34"/>
+      <selection pane="topRight" activeCell="H59" sqref="H59:H61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5740,7 +5743,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:10">
       <c r="A35" t="s">
         <v>85</v>
       </c>
@@ -5753,8 +5756,11 @@
       <c r="E35" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>87</v>
       </c>
@@ -5767,8 +5773,11 @@
       <c r="E36" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="I36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" t="s">
         <v>88</v>
       </c>
@@ -5781,8 +5790,11 @@
       <c r="E37" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" t="s">
         <v>89</v>
       </c>
@@ -5795,8 +5807,11 @@
       <c r="E38" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="J38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" t="s">
         <v>90</v>
       </c>
@@ -5809,8 +5824,11 @@
       <c r="E39" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="K39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" t="s">
         <v>91</v>
       </c>
@@ -5823,8 +5841,11 @@
       <c r="E40" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="J40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" t="s">
         <v>92</v>
       </c>
@@ -5837,8 +5858,11 @@
       <c r="E41" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="H41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>93</v>
       </c>
@@ -5851,8 +5875,11 @@
       <c r="E42" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="I42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" t="s">
         <v>94</v>
       </c>
@@ -5865,8 +5892,14 @@
       <c r="E43" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="J43">
+        <v>1</v>
+      </c>
+      <c r="K43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" t="s">
         <v>95</v>
       </c>
@@ -5879,8 +5912,14 @@
       <c r="E44" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" t="s">
         <v>96</v>
       </c>
@@ -5893,8 +5932,11 @@
       <c r="E45" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="H45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" t="s">
         <v>97</v>
       </c>
@@ -5907,8 +5949,14 @@
       <c r="E46" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="I46">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" t="s">
         <v>98</v>
       </c>
@@ -5921,8 +5969,11 @@
       <c r="E47" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="J47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" t="s">
         <v>99</v>
       </c>
@@ -5935,8 +5986,14 @@
       <c r="E48" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" t="s">
         <v>100</v>
       </c>
@@ -5949,8 +6006,14 @@
       <c r="E49" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="I49">
+        <v>2</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>101</v>
       </c>
@@ -5963,8 +6026,14 @@
       <c r="E50" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="I50">
+        <v>1</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" t="s">
         <v>102</v>
       </c>
@@ -5977,8 +6046,17 @@
       <c r="E51" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" t="s">
         <v>103</v>
       </c>
@@ -5991,8 +6069,20 @@
       <c r="E52" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="H52">
+        <v>2</v>
+      </c>
+      <c r="I52">
+        <v>2</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+      <c r="K52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" t="s">
         <v>104</v>
       </c>
@@ -6005,8 +6095,20 @@
       <c r="E53" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="H53">
+        <v>2</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>2</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" t="s">
         <v>105</v>
       </c>
@@ -6019,8 +6121,20 @@
       <c r="E54" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="H54" s="6">
+        <v>3</v>
+      </c>
+      <c r="I54" s="6">
+        <v>3</v>
+      </c>
+      <c r="J54" s="6">
+        <v>3</v>
+      </c>
+      <c r="K54" s="6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" t="s">
         <v>107</v>
       </c>
@@ -6033,8 +6147,12 @@
       <c r="E55" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="6"/>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" t="s">
         <v>108</v>
       </c>
@@ -6047,8 +6165,20 @@
       <c r="E56" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="H56" s="6">
+        <v>6</v>
+      </c>
+      <c r="I56" s="6">
+        <v>6</v>
+      </c>
+      <c r="J56" s="6">
+        <v>6</v>
+      </c>
+      <c r="K56" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" t="s">
         <v>109</v>
       </c>
@@ -6061,8 +6191,12 @@
       <c r="E57" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
+      <c r="K57" s="6"/>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" t="s">
         <v>110</v>
       </c>
@@ -6075,6 +6209,10 @@
       <c r="E58" t="s">
         <v>39</v>
       </c>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
+      <c r="K58" s="6"/>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
@@ -6160,7 +6298,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>117</v>
       </c>
@@ -6176,8 +6314,11 @@
       <c r="E65" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="I65">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" t="s">
         <v>120</v>
       </c>
@@ -6193,8 +6334,11 @@
       <c r="E66" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="J66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" t="s">
         <v>122</v>
       </c>
@@ -6210,8 +6354,11 @@
       <c r="E67" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="K67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" t="s">
         <v>124</v>
       </c>
@@ -6227,8 +6374,11 @@
       <c r="E68" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="H68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" t="s">
         <v>125</v>
       </c>
@@ -6244,8 +6394,11 @@
       <c r="E69" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="J69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>126</v>
       </c>
@@ -6261,8 +6414,11 @@
       <c r="E70" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="I70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" t="s">
         <v>127</v>
       </c>
@@ -6278,8 +6434,14 @@
       <c r="E71" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="H71">
+        <v>2</v>
+      </c>
+      <c r="J71">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" t="s">
         <v>128</v>
       </c>
@@ -6295,8 +6457,14 @@
       <c r="E72" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="K72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" t="s">
         <v>129</v>
       </c>
@@ -6312,8 +6480,14 @@
       <c r="E73" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="J73">
+        <v>2</v>
+      </c>
+      <c r="K73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" t="s">
         <v>130</v>
       </c>
@@ -6329,8 +6503,14 @@
       <c r="E74" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="H74">
+        <v>2</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" t="s">
         <v>131</v>
       </c>
@@ -6346,8 +6526,14 @@
       <c r="E75" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="I75">
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" t="s">
         <v>132</v>
       </c>
@@ -6363,8 +6549,20 @@
       <c r="E76" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="H76">
+        <v>2</v>
+      </c>
+      <c r="I76">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <v>2</v>
+      </c>
+      <c r="K76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" t="s">
         <v>133</v>
       </c>
@@ -6380,8 +6578,20 @@
       <c r="E77" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="H77">
+        <v>2</v>
+      </c>
+      <c r="I77">
+        <v>2</v>
+      </c>
+      <c r="J77">
+        <v>2</v>
+      </c>
+      <c r="K77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" t="s">
         <v>134</v>
       </c>
@@ -6397,14 +6607,34 @@
       <c r="E78" t="s">
         <v>41</v>
       </c>
+      <c r="H78">
+        <v>2</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>2</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="13">
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:U1"/>
     <mergeCell ref="V1:Z1"/>
     <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="H56:H58"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="I56:I58"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="J56:J58"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="K56:K58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -8650,7 +8880,7 @@
         <v>6900</v>
       </c>
       <c r="F66">
-        <f t="shared" ref="F66:F97" si="10">200+0.5*D66</f>
+        <f t="shared" ref="F66:F101" si="10">200+0.5*D66</f>
         <v>365</v>
       </c>
       <c r="G66">
@@ -8680,7 +8910,7 @@
         <v>335</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E98" si="11">300+20*B67</f>
+        <f t="shared" ref="E67:E101" si="11">300+20*B67</f>
         <v>7000</v>
       </c>
       <c r="F67">
@@ -8688,15 +8918,15 @@
         <v>367.5</v>
       </c>
       <c r="G67">
-        <f t="shared" ref="G67:G98" si="12">0.1*C67</f>
+        <f t="shared" ref="G67:G101" si="12">0.1*C67</f>
         <v>33.5</v>
       </c>
       <c r="H67">
-        <f t="shared" ref="H67:H98" si="13">(1-0.06*G67/(1+0.06*G67))</f>
+        <f t="shared" ref="H67:H101" si="13">(1-0.06*G67/(1+0.06*G67))</f>
         <v>0.332225913621263</v>
       </c>
       <c r="I67" s="3">
-        <f t="shared" ref="I67:I98" si="14">E67/(1-0.06*G67/(1+0.06*G67))</f>
+        <f t="shared" ref="I67:I101" si="14">E67/(1-0.06*G67/(1+0.06*G67))</f>
         <v>21070</v>
       </c>
     </row>
@@ -9738,7 +9968,7 @@
         <v>10100</v>
       </c>
       <c r="F98">
-        <f>200+0.5*D98</f>
+        <f t="shared" si="10"/>
         <v>445</v>
       </c>
       <c r="G98">
@@ -9768,23 +9998,23 @@
         <v>495</v>
       </c>
       <c r="E99">
-        <f>300+20*B99</f>
+        <f t="shared" si="11"/>
         <v>10200</v>
       </c>
       <c r="F99">
-        <f>200+0.5*D99</f>
+        <f t="shared" si="10"/>
         <v>447.5</v>
       </c>
       <c r="G99">
-        <f>0.1*C99</f>
+        <f t="shared" si="12"/>
         <v>49.5</v>
       </c>
       <c r="H99">
-        <f>(1-0.06*G99/(1+0.06*G99))</f>
+        <f t="shared" si="13"/>
         <v>0.251889168765743</v>
       </c>
       <c r="I99" s="3">
-        <f>E99/(1-0.06*G99/(1+0.06*G99))</f>
+        <f t="shared" si="14"/>
         <v>40494</v>
       </c>
     </row>
@@ -9802,23 +10032,23 @@
         <v>500</v>
       </c>
       <c r="E100">
-        <f>300+20*B100</f>
+        <f t="shared" si="11"/>
         <v>10300</v>
       </c>
       <c r="F100">
-        <f>200+0.5*D100</f>
+        <f t="shared" si="10"/>
         <v>450</v>
       </c>
       <c r="G100">
-        <f>0.1*C100</f>
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
       <c r="H100">
-        <f>(1-0.06*G100/(1+0.06*G100))</f>
+        <f t="shared" si="13"/>
         <v>0.25</v>
       </c>
       <c r="I100" s="3">
-        <f>E100/(1-0.06*G100/(1+0.06*G100))</f>
+        <f t="shared" si="14"/>
         <v>41200</v>
       </c>
     </row>
@@ -9836,23 +10066,23 @@
         <v>505</v>
       </c>
       <c r="E101" s="2">
-        <f>300+20*B101</f>
+        <f t="shared" si="11"/>
         <v>10400</v>
       </c>
       <c r="F101" s="2">
-        <f>200+0.5*D101</f>
+        <f t="shared" si="10"/>
         <v>452.5</v>
       </c>
       <c r="G101" s="2">
-        <f>0.1*C101</f>
+        <f t="shared" si="12"/>
         <v>50.5</v>
       </c>
       <c r="H101" s="2">
-        <f>(1-0.06*G101/(1+0.06*G101))</f>
+        <f t="shared" si="13"/>
         <v>0.248138957816377</v>
       </c>
       <c r="I101" s="4">
-        <f>E101/(1-0.06*G101/(1+0.06*G101))</f>
+        <f t="shared" si="14"/>
         <v>41912</v>
       </c>
     </row>

--- a/doc/数值设计.xlsx
+++ b/doc/数值设计.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="145">
   <si>
     <t xml:space="preserve">四围 </t>
   </si>
@@ -266,15 +266,27 @@
     <t>天玑毒掌</t>
   </si>
   <si>
+    <t>攻击中率使敌人中毒</t>
+  </si>
+  <si>
     <t>踏风冰手</t>
   </si>
   <si>
+    <t>攻击中率使敌人冰冻</t>
+  </si>
+  <si>
     <t>魔影炎掌</t>
   </si>
   <si>
+    <t>攻击中率使敌人烧伤</t>
+  </si>
+  <si>
     <t>无魅雷手</t>
   </si>
   <si>
+    <t>攻击中率使敌从封穴</t>
+  </si>
+  <si>
     <t>护身符</t>
   </si>
   <si>
@@ -417,6 +429,9 @@
   </si>
   <si>
     <t>打狗棒</t>
+  </si>
+  <si>
+    <t>随机词条</t>
   </si>
   <si>
     <t>屠龙刀</t>
@@ -1070,7 +1085,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1085,6 +1100,9 @@
     </xf>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -4803,50 +4821,51 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="H59" sqref="H59:H61"/>
+      <selection pane="topRight" activeCell="F76" sqref="F76:F78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.7583333333333" customWidth="1"/>
     <col min="7" max="7" width="17.0583333333333" customWidth="1"/>
+    <col min="8" max="11" width="9" style="5"/>
     <col min="15" max="15" width="12.625"/>
     <col min="17" max="17" width="15.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="8:29">
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5" t="s">
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="5"/>
-      <c r="N1" s="5"/>
-      <c r="O1" s="5" t="s">
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="5"/>
-      <c r="Q1" s="5"/>
-      <c r="R1" s="5"/>
-      <c r="S1" s="5"/>
-      <c r="T1" s="5"/>
-      <c r="U1" s="5"/>
-      <c r="V1" s="5" t="s">
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6"/>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="W1" s="5"/>
-      <c r="X1" s="5"/>
-      <c r="Y1" s="5"/>
-      <c r="Z1" s="5"/>
-      <c r="AA1" s="5" t="s">
+      <c r="W1" s="6"/>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="AB1" s="5"/>
-      <c r="AC1" s="5"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:29">
       <c r="A2" t="s">
@@ -4870,16 +4889,16 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="L2" t="s">
@@ -4953,7 +4972,7 @@
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="5">
         <v>1</v>
       </c>
       <c r="O3">
@@ -4983,7 +5002,7 @@
       <c r="F4">
         <v>1.2</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="5">
         <v>1</v>
       </c>
       <c r="O4">
@@ -5013,7 +5032,7 @@
       <c r="F5">
         <v>1.5</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="5">
         <v>2</v>
       </c>
       <c r="O5">
@@ -5043,7 +5062,7 @@
       <c r="F6">
         <v>4</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="5">
         <v>2</v>
       </c>
       <c r="O6">
@@ -5073,7 +5092,7 @@
       <c r="F7">
         <v>4.8</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="5">
         <v>2</v>
       </c>
       <c r="O7">
@@ -5106,13 +5125,13 @@
       <c r="G8" t="s">
         <v>46</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="5">
         <v>1</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="5">
         <v>1</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="5">
         <v>1</v>
       </c>
       <c r="O8">
@@ -5145,7 +5164,7 @@
       <c r="G9" t="s">
         <v>49</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="5">
         <v>3</v>
       </c>
       <c r="O9">
@@ -5178,7 +5197,7 @@
       <c r="G10" t="s">
         <v>51</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="5">
         <v>4</v>
       </c>
       <c r="O10">
@@ -5211,7 +5230,7 @@
       <c r="G11" t="s">
         <v>53</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="5">
         <v>4</v>
       </c>
       <c r="O11">
@@ -5244,7 +5263,7 @@
       <c r="G12" t="s">
         <v>56</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="5">
         <v>5</v>
       </c>
       <c r="O12">
@@ -5277,10 +5296,10 @@
       <c r="G13" t="s">
         <v>58</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="5">
         <v>2</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="5">
         <v>3</v>
       </c>
       <c r="O13">
@@ -5313,10 +5332,10 @@
       <c r="G14" t="s">
         <v>60</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="5">
         <v>3</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="5">
         <v>3</v>
       </c>
       <c r="O14">
@@ -5349,16 +5368,16 @@
       <c r="G15" t="s">
         <v>63</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="5">
         <v>2</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="5">
         <v>2</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="5">
         <v>2</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="5">
         <v>2</v>
       </c>
       <c r="O15">
@@ -5385,7 +5404,7 @@
       <c r="E16" t="s">
         <v>37</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="5">
         <v>1</v>
       </c>
       <c r="AA16">
@@ -5405,7 +5424,7 @@
       <c r="E17" t="s">
         <v>39</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="5">
         <v>1</v>
       </c>
       <c r="AA17">
@@ -5425,7 +5444,7 @@
       <c r="E18" t="s">
         <v>37</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="5">
         <v>2</v>
       </c>
       <c r="AA18">
@@ -5445,7 +5464,7 @@
       <c r="E19" t="s">
         <v>39</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="5">
         <v>2</v>
       </c>
       <c r="AA19">
@@ -5465,7 +5484,7 @@
       <c r="E20" t="s">
         <v>37</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="5">
         <v>3</v>
       </c>
       <c r="AA20">
@@ -5485,7 +5504,7 @@
       <c r="E21" t="s">
         <v>39</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="5">
         <v>3</v>
       </c>
       <c r="AA21">
@@ -5505,7 +5524,7 @@
       <c r="E22" t="s">
         <v>37</v>
       </c>
-      <c r="K22">
+      <c r="K22" s="5">
         <v>4</v>
       </c>
       <c r="AA22">
@@ -5525,23 +5544,23 @@
       <c r="E23" t="s">
         <v>41</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="5">
         <v>2</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="5">
         <v>2</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="5">
         <v>2</v>
       </c>
-      <c r="K23">
+      <c r="K23" s="5">
         <v>2</v>
       </c>
       <c r="AA23">
         <v>150</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>73</v>
       </c>
@@ -5554,11 +5573,14 @@
       <c r="E24" t="s">
         <v>37</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:9">
+      <c r="V24">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28">
       <c r="A25" t="s">
         <v>75</v>
       </c>
@@ -5571,11 +5593,17 @@
       <c r="E25" t="s">
         <v>39</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:10">
+      <c r="V25">
+        <v>6</v>
+      </c>
+      <c r="AB25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29">
       <c r="A26" t="s">
         <v>76</v>
       </c>
@@ -5588,11 +5616,17 @@
       <c r="E26" t="s">
         <v>41</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:9">
+      <c r="V26">
+        <v>7</v>
+      </c>
+      <c r="AC26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -5605,11 +5639,17 @@
       <c r="E27" t="s">
         <v>37</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="V27">
+        <v>10</v>
+      </c>
+      <c r="AC27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25">
       <c r="A28" t="s">
         <v>78</v>
       </c>
@@ -5622,11 +5662,17 @@
       <c r="E28" t="s">
         <v>39</v>
       </c>
-      <c r="K28">
+      <c r="K28" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="V28">
+        <v>12</v>
+      </c>
+      <c r="Y28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
         <v>79</v>
       </c>
@@ -5639,11 +5685,17 @@
       <c r="E29" t="s">
         <v>37</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:9">
+      <c r="Q29">
+        <v>2</v>
+      </c>
+      <c r="V29">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
         <v>80</v>
       </c>
@@ -5656,11 +5708,17 @@
       <c r="E30" t="s">
         <v>39</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="R30">
+        <v>15</v>
+      </c>
+      <c r="V30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
         <v>81</v>
       </c>
@@ -5673,13 +5731,22 @@
       <c r="E31" t="s">
         <v>37</v>
       </c>
-      <c r="J31">
+      <c r="G31" t="s">
+        <v>82</v>
+      </c>
+      <c r="J31" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
+      <c r="T31">
+        <v>5</v>
+      </c>
+      <c r="V31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B32" t="s">
         <v>74</v>
@@ -5690,16 +5757,25 @@
       <c r="E32" t="s">
         <v>39</v>
       </c>
-      <c r="H32">
+      <c r="G32" t="s">
+        <v>84</v>
+      </c>
+      <c r="H32" s="5">
         <v>2</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="V32">
+        <v>24</v>
+      </c>
+      <c r="X32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:26">
       <c r="A33" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
         <v>74</v>
@@ -5710,16 +5786,25 @@
       <c r="E33" t="s">
         <v>41</v>
       </c>
-      <c r="J33">
+      <c r="G33" t="s">
+        <v>86</v>
+      </c>
+      <c r="J33" s="5">
         <v>2</v>
       </c>
-      <c r="K33">
+      <c r="K33" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="V33">
+        <v>28</v>
+      </c>
+      <c r="Z33">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B34" t="s">
         <v>74</v>
@@ -5730,25 +5815,34 @@
       <c r="E34" t="s">
         <v>41</v>
       </c>
-      <c r="H34">
+      <c r="G34" t="s">
+        <v>88</v>
+      </c>
+      <c r="H34" s="5">
         <v>2</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="5">
         <v>2</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="5">
         <v>2</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="V34">
+        <v>35</v>
+      </c>
+      <c r="W34">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B35" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D35" t="s">
         <v>36</v>
@@ -5756,16 +5850,19 @@
       <c r="E35" t="s">
         <v>37</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:9">
+      <c r="M35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D36" t="s">
         <v>36</v>
@@ -5773,16 +5870,19 @@
       <c r="E36" t="s">
         <v>37</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="M36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D37" t="s">
         <v>36</v>
@@ -5790,16 +5890,19 @@
       <c r="E37" t="s">
         <v>39</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:10">
+      <c r="M37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
         <v>36</v>
@@ -5807,16 +5910,19 @@
       <c r="E38" t="s">
         <v>39</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="M38">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B39" t="s">
         <v>90</v>
-      </c>
-      <c r="B39" t="s">
-        <v>86</v>
       </c>
       <c r="D39" t="s">
         <v>36</v>
@@ -5824,16 +5930,19 @@
       <c r="E39" t="s">
         <v>41</v>
       </c>
-      <c r="K39">
+      <c r="K39" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="M39">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D40" t="s">
         <v>36</v>
@@ -5841,16 +5950,19 @@
       <c r="E40" t="s">
         <v>41</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="M40">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D41" t="s">
         <v>43</v>
@@ -5858,16 +5970,19 @@
       <c r="E41" t="s">
         <v>37</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:9">
+      <c r="M41">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B42" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D42" t="s">
         <v>43</v>
@@ -5875,16 +5990,19 @@
       <c r="E42" t="s">
         <v>37</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="M42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D43" t="s">
         <v>43</v>
@@ -5892,19 +6010,22 @@
       <c r="E43" t="s">
         <v>39</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="5">
         <v>1</v>
       </c>
-      <c r="K43">
+      <c r="K43" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="M43">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
         <v>43</v>
@@ -5912,19 +6033,22 @@
       <c r="E44" t="s">
         <v>41</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="5">
         <v>1</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="M44">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D45" t="s">
         <v>48</v>
@@ -5932,16 +6056,19 @@
       <c r="E45" t="s">
         <v>37</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="M45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D46" t="s">
         <v>48</v>
@@ -5949,19 +6076,22 @@
       <c r="E46" t="s">
         <v>39</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="5">
         <v>2</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:10">
+      <c r="M46">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B47" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D47" t="s">
         <v>48</v>
@@ -5969,16 +6099,19 @@
       <c r="E47" t="s">
         <v>39</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="1:10">
+      <c r="M47">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B48" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D48" t="s">
         <v>48</v>
@@ -5986,19 +6119,22 @@
       <c r="E48" t="s">
         <v>41</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="5">
         <v>2</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="M48">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B49" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D49" t="s">
         <v>55</v>
@@ -6006,19 +6142,22 @@
       <c r="E49" t="s">
         <v>37</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="5">
         <v>2</v>
       </c>
-      <c r="K49">
+      <c r="K49" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="M49">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B50" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D50" t="s">
         <v>55</v>
@@ -6026,19 +6165,22 @@
       <c r="E50" t="s">
         <v>39</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="5">
         <v>1</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="M50">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B51" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D51" t="s">
         <v>55</v>
@@ -6046,22 +6188,25 @@
       <c r="E51" t="s">
         <v>41</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="5">
         <v>2</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="5">
         <v>1</v>
       </c>
-      <c r="K51">
+      <c r="K51" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="M51">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B52" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D52" t="s">
         <v>62</v>
@@ -6069,25 +6214,31 @@
       <c r="E52" t="s">
         <v>41</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="5">
         <v>2</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="5">
         <v>2</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="5">
         <v>2</v>
       </c>
-      <c r="K52">
+      <c r="K52" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="M52">
+        <v>180</v>
+      </c>
+      <c r="Y52">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B53" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D53" t="s">
         <v>62</v>
@@ -6095,25 +6246,28 @@
       <c r="E53" t="s">
         <v>41</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="5">
         <v>2</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="5">
         <v>2</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="5">
         <v>2</v>
       </c>
-      <c r="K53">
+      <c r="K53" s="5">
         <v>2</v>
+      </c>
+      <c r="M53">
+        <v>180</v>
       </c>
     </row>
     <row r="54" spans="1:11">
       <c r="A54" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D54" t="s">
         <v>36</v>
@@ -6121,25 +6275,25 @@
       <c r="E54" t="s">
         <v>39</v>
       </c>
-      <c r="H54" s="6">
+      <c r="H54" s="7">
         <v>3</v>
       </c>
-      <c r="I54" s="6">
+      <c r="I54" s="7">
         <v>3</v>
       </c>
-      <c r="J54" s="6">
+      <c r="J54" s="7">
         <v>3</v>
       </c>
-      <c r="K54" s="6">
+      <c r="K54" s="7">
         <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:11">
       <c r="A55" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B55" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D55" t="s">
         <v>36</v>
@@ -6147,17 +6301,17 @@
       <c r="E55" t="s">
         <v>39</v>
       </c>
-      <c r="H55" s="6"/>
-      <c r="I55" s="6"/>
-      <c r="J55" s="6"/>
-      <c r="K55" s="6"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="7"/>
+      <c r="K55" s="7"/>
     </row>
     <row r="56" spans="1:11">
       <c r="A56" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B56" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D56" t="s">
         <v>43</v>
@@ -6165,25 +6319,25 @@
       <c r="E56" t="s">
         <v>39</v>
       </c>
-      <c r="H56" s="6">
+      <c r="H56" s="7">
         <v>6</v>
       </c>
-      <c r="I56" s="6">
+      <c r="I56" s="7">
         <v>6</v>
       </c>
-      <c r="J56" s="6">
+      <c r="J56" s="7">
         <v>6</v>
       </c>
-      <c r="K56" s="6">
+      <c r="K56" s="7">
         <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:11">
       <c r="A57" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D57" t="s">
         <v>43</v>
@@ -6191,17 +6345,17 @@
       <c r="E57" t="s">
         <v>39</v>
       </c>
-      <c r="H57" s="6"/>
-      <c r="I57" s="6"/>
-      <c r="J57" s="6"/>
-      <c r="K57" s="6"/>
+      <c r="H57" s="7"/>
+      <c r="I57" s="7"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="7"/>
     </row>
     <row r="58" spans="1:11">
       <c r="A58" t="s">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
         <v>110</v>
-      </c>
-      <c r="B58" t="s">
-        <v>106</v>
       </c>
       <c r="D58" t="s">
         <v>43</v>
@@ -6209,17 +6363,17 @@
       <c r="E58" t="s">
         <v>39</v>
       </c>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="H58" s="7"/>
+      <c r="I58" s="7"/>
+      <c r="J58" s="7"/>
+      <c r="K58" s="7"/>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D59" t="s">
         <v>48</v>
@@ -6227,13 +6381,25 @@
       <c r="E59" t="s">
         <v>39</v>
       </c>
+      <c r="H59" s="5">
+        <v>8</v>
+      </c>
+      <c r="I59" s="5">
+        <v>8</v>
+      </c>
+      <c r="J59" s="5">
+        <v>8</v>
+      </c>
+      <c r="K59" s="5">
+        <v>8</v>
+      </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="B60" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D60" t="s">
         <v>48</v>
@@ -6244,10 +6410,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B61" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D61" t="s">
         <v>48</v>
@@ -6256,12 +6422,12 @@
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:11">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B62" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D62" t="s">
         <v>55</v>
@@ -6269,13 +6435,25 @@
       <c r="E62" t="s">
         <v>39</v>
       </c>
+      <c r="H62" s="5">
+        <v>9</v>
+      </c>
+      <c r="I62" s="5">
+        <v>9</v>
+      </c>
+      <c r="J62" s="5">
+        <v>9</v>
+      </c>
+      <c r="K62" s="5">
+        <v>9</v>
+      </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B63" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D63" t="s">
         <v>55</v>
@@ -6286,10 +6464,10 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="B64" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="D64" t="s">
         <v>55</v>
@@ -6298,15 +6476,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:12">
       <c r="A65" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B65" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C65" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D65" t="s">
         <v>36</v>
@@ -6314,19 +6492,22 @@
       <c r="E65" t="s">
         <v>37</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:10">
+      <c r="L65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="B66" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C66" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D66" t="s">
         <v>36</v>
@@ -6334,19 +6515,22 @@
       <c r="E66" t="s">
         <v>39</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="L66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" t="s">
         <v>122</v>
       </c>
-      <c r="B67" t="s">
-        <v>118</v>
-      </c>
       <c r="C67" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D67" t="s">
         <v>36</v>
@@ -6354,19 +6538,22 @@
       <c r="E67" t="s">
         <v>37</v>
       </c>
-      <c r="K67">
+      <c r="K67" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:8">
+      <c r="L67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="B68" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C68" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D68" t="s">
         <v>43</v>
@@ -6374,19 +6561,22 @@
       <c r="E68" t="s">
         <v>37</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="69" spans="1:10">
+      <c r="L68">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" t="s">
+        <v>129</v>
+      </c>
+      <c r="B69" t="s">
+        <v>122</v>
+      </c>
+      <c r="C69" t="s">
         <v>125</v>
-      </c>
-      <c r="B69" t="s">
-        <v>118</v>
-      </c>
-      <c r="C69" t="s">
-        <v>121</v>
       </c>
       <c r="D69" t="s">
         <v>43</v>
@@ -6394,19 +6584,22 @@
       <c r="E69" t="s">
         <v>39</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="70" spans="1:9">
+      <c r="L69">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="B70" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C70" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D70" t="s">
         <v>48</v>
@@ -6414,19 +6607,22 @@
       <c r="E70" t="s">
         <v>37</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:10">
+      <c r="L70">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B71" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C71" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D71" t="s">
         <v>48</v>
@@ -6434,22 +6630,25 @@
       <c r="E71" t="s">
         <v>41</v>
       </c>
-      <c r="H71">
+      <c r="H71" s="5">
         <v>2</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="L71">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B72" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C72" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D72" t="s">
         <v>48</v>
@@ -6457,22 +6656,25 @@
       <c r="E72" t="s">
         <v>39</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="5">
         <v>2</v>
       </c>
-      <c r="K72">
+      <c r="K72" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="L72">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B73" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C73" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D73" t="s">
         <v>55</v>
@@ -6480,22 +6682,25 @@
       <c r="E73" t="s">
         <v>37</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="5">
         <v>2</v>
       </c>
-      <c r="K73">
+      <c r="K73" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="L73">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B74" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C74" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D74" t="s">
         <v>55</v>
@@ -6503,22 +6708,25 @@
       <c r="E74" t="s">
         <v>39</v>
       </c>
-      <c r="H74">
+      <c r="H74" s="5">
         <v>2</v>
       </c>
-      <c r="K74">
+      <c r="K74" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:10">
+      <c r="L74">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B75" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C75" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D75" t="s">
         <v>55</v>
@@ -6526,22 +6734,25 @@
       <c r="E75" t="s">
         <v>41</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="5">
         <v>2</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="L75">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B76" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C76" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D76" t="s">
         <v>62</v>
@@ -6549,28 +6760,34 @@
       <c r="E76" t="s">
         <v>41</v>
       </c>
-      <c r="H76">
+      <c r="F76" t="s">
+        <v>137</v>
+      </c>
+      <c r="H76" s="5">
         <v>2</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="5">
         <v>2</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="5">
         <v>2</v>
       </c>
-      <c r="K76">
+      <c r="K76" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="L76">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B77" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C77" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D77" t="s">
         <v>62</v>
@@ -6578,28 +6795,34 @@
       <c r="E77" t="s">
         <v>41</v>
       </c>
-      <c r="H77">
+      <c r="F77" t="s">
+        <v>137</v>
+      </c>
+      <c r="H77" s="5">
         <v>2</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="5">
         <v>2</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="5">
         <v>2</v>
       </c>
-      <c r="K77">
+      <c r="K77" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="L77">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B78" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C78" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D78" t="s">
         <v>62</v>
@@ -6607,21 +6830,27 @@
       <c r="E78" t="s">
         <v>41</v>
       </c>
-      <c r="H78">
+      <c r="F78" t="s">
+        <v>137</v>
+      </c>
+      <c r="H78" s="5">
         <v>2</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="5">
         <v>2</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="5">
         <v>2</v>
       </c>
-      <c r="K78">
+      <c r="K78" s="5">
         <v>2</v>
       </c>
+      <c r="L78">
+        <v>240</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="21">
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:U1"/>
@@ -6629,12 +6858,20 @@
     <mergeCell ref="AA1:AC1"/>
     <mergeCell ref="H54:H55"/>
     <mergeCell ref="H56:H58"/>
+    <mergeCell ref="H59:H61"/>
+    <mergeCell ref="H62:H64"/>
     <mergeCell ref="I54:I55"/>
     <mergeCell ref="I56:I58"/>
+    <mergeCell ref="I59:I61"/>
+    <mergeCell ref="I62:I64"/>
     <mergeCell ref="J54:J55"/>
     <mergeCell ref="J56:J58"/>
+    <mergeCell ref="J59:J61"/>
+    <mergeCell ref="J62:J64"/>
     <mergeCell ref="K54:K55"/>
     <mergeCell ref="K56:K58"/>
+    <mergeCell ref="K59:K61"/>
+    <mergeCell ref="K62:K64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6659,7 +6896,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -6671,19 +6908,19 @@
         <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="F1" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G1" t="s">
         <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="I1" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:9">

--- a/doc/数值设计.xlsx
+++ b/doc/数值设计.xlsx
@@ -8,17 +8,17 @@
   </bookViews>
   <sheets>
     <sheet name="装备" sheetId="1" r:id="rId1"/>
-    <sheet name="人物成长" sheetId="2" r:id="rId2"/>
-    <sheet name="武器熟练度" sheetId="3" r:id="rId3"/>
-    <sheet name="用于计算" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="词条" sheetId="5" r:id="rId2"/>
+    <sheet name="人物成长" sheetId="2" r:id="rId3"/>
+    <sheet name="武器熟练度" sheetId="3" r:id="rId4"/>
+    <sheet name="用于计算" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="148">
   <si>
     <t xml:space="preserve">四围 </t>
   </si>
@@ -434,10 +434,19 @@
     <t>随机词条</t>
   </si>
   <si>
+    <t>攻击时召唤恶犬</t>
+  </si>
+  <si>
     <t>屠龙刀</t>
   </si>
   <si>
+    <t>开启后10秒内大幅增加暴击倍数</t>
+  </si>
+  <si>
     <t>倚天剑</t>
+  </si>
+  <si>
+    <t>开启后10秒内进入狂暴状态</t>
   </si>
   <si>
     <t>等级</t>
@@ -464,8 +473,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1089,16 +1098,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4818,16 +4827,16 @@
   <sheetPr/>
   <dimension ref="A1:AC78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A13" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="F76" sqref="F76:F78"/>
+      <selection pane="topRight" activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="11.7583333333333" customWidth="1"/>
-    <col min="7" max="7" width="17.0583333333333" customWidth="1"/>
+    <col min="7" max="7" width="25.2916666666667" customWidth="1"/>
     <col min="8" max="11" width="9" style="5"/>
     <col min="15" max="15" width="12.625"/>
     <col min="17" max="17" width="15.75" customWidth="1"/>
@@ -5576,6 +5585,9 @@
       <c r="H24" s="5">
         <v>1</v>
       </c>
+      <c r="N24">
+        <v>5</v>
+      </c>
       <c r="V24">
         <v>5</v>
       </c>
@@ -5596,6 +5608,9 @@
       <c r="I25" s="5">
         <v>1</v>
       </c>
+      <c r="N25">
+        <v>10</v>
+      </c>
       <c r="V25">
         <v>6</v>
       </c>
@@ -5619,6 +5634,9 @@
       <c r="J26" s="5">
         <v>2</v>
       </c>
+      <c r="N26">
+        <v>10</v>
+      </c>
       <c r="V26">
         <v>7</v>
       </c>
@@ -5642,6 +5660,9 @@
       <c r="I27" s="5">
         <v>2</v>
       </c>
+      <c r="N27">
+        <v>15</v>
+      </c>
       <c r="V27">
         <v>10</v>
       </c>
@@ -5665,6 +5686,9 @@
       <c r="K28" s="5">
         <v>3</v>
       </c>
+      <c r="N28">
+        <v>20</v>
+      </c>
       <c r="V28">
         <v>12</v>
       </c>
@@ -5688,6 +5712,9 @@
       <c r="H29" s="5">
         <v>3</v>
       </c>
+      <c r="N29">
+        <v>30</v>
+      </c>
       <c r="Q29">
         <v>2</v>
       </c>
@@ -5711,6 +5738,9 @@
       <c r="I30" s="5">
         <v>4</v>
       </c>
+      <c r="N30">
+        <v>40</v>
+      </c>
       <c r="R30">
         <v>15</v>
       </c>
@@ -5737,6 +5767,9 @@
       <c r="J31" s="5">
         <v>4</v>
       </c>
+      <c r="N31">
+        <v>50</v>
+      </c>
       <c r="T31">
         <v>5</v>
       </c>
@@ -5766,6 +5799,9 @@
       <c r="I32" s="5">
         <v>3</v>
       </c>
+      <c r="N32">
+        <v>60</v>
+      </c>
       <c r="V32">
         <v>24</v>
       </c>
@@ -5795,6 +5831,9 @@
       <c r="K33" s="5">
         <v>3</v>
       </c>
+      <c r="N33">
+        <v>100</v>
+      </c>
       <c r="V33">
         <v>28</v>
       </c>
@@ -5830,6 +5869,9 @@
       <c r="K34" s="5">
         <v>2</v>
       </c>
+      <c r="N34">
+        <v>150</v>
+      </c>
       <c r="V34">
         <v>35</v>
       </c>
@@ -5837,7 +5879,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:14">
       <c r="A35" t="s">
         <v>89</v>
       </c>
@@ -5856,8 +5898,11 @@
       <c r="M35">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14">
       <c r="A36" t="s">
         <v>91</v>
       </c>
@@ -5876,8 +5921,11 @@
       <c r="M36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>92</v>
       </c>
@@ -5896,8 +5944,11 @@
       <c r="M37">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="O37">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29">
       <c r="A38" t="s">
         <v>93</v>
       </c>
@@ -5916,8 +5967,11 @@
       <c r="M38">
         <v>10</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="AC38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" t="s">
         <v>94</v>
       </c>
@@ -5936,8 +5990,11 @@
       <c r="M39">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="P39">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29">
       <c r="A40" t="s">
         <v>95</v>
       </c>
@@ -5956,8 +6013,11 @@
       <c r="M40">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="AC40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29">
       <c r="A41" t="s">
         <v>96</v>
       </c>
@@ -5976,8 +6036,11 @@
       <c r="M41">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="AC41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17">
       <c r="A42" t="s">
         <v>97</v>
       </c>
@@ -5996,8 +6059,11 @@
       <c r="M42">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="Q42">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
       <c r="A43" t="s">
         <v>98</v>
       </c>
@@ -6019,8 +6085,11 @@
       <c r="M43">
         <v>25</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="R43">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19">
       <c r="A44" t="s">
         <v>99</v>
       </c>
@@ -6042,8 +6111,11 @@
       <c r="M44">
         <v>30</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="S44">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20">
       <c r="A45" t="s">
         <v>100</v>
       </c>
@@ -6062,8 +6134,11 @@
       <c r="M45">
         <v>35</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="T45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" t="s">
         <v>101</v>
       </c>
@@ -6085,8 +6160,11 @@
       <c r="M46">
         <v>40</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="U46">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29">
       <c r="A47" t="s">
         <v>102</v>
       </c>
@@ -6105,8 +6183,14 @@
       <c r="M47">
         <v>40</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="V47">
+        <v>15</v>
+      </c>
+      <c r="AC47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
       <c r="A48" t="s">
         <v>103</v>
       </c>
@@ -6128,8 +6212,11 @@
       <c r="M48">
         <v>45</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="W48">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24">
       <c r="A49" t="s">
         <v>104</v>
       </c>
@@ -6151,8 +6238,11 @@
       <c r="M49">
         <v>50</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="X49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:28">
       <c r="A50" t="s">
         <v>105</v>
       </c>
@@ -6174,8 +6264,11 @@
       <c r="M50">
         <v>80</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="AB50">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -6199,6 +6292,9 @@
       </c>
       <c r="M51">
         <v>100</v>
+      </c>
+      <c r="AC51">
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="1:25">
@@ -6233,7 +6329,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:26">
       <c r="A53" t="s">
         <v>108</v>
       </c>
@@ -6261,8 +6357,11 @@
       <c r="M53">
         <v>180</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="Z53">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54" t="s">
         <v>109</v>
       </c>
@@ -6275,20 +6374,32 @@
       <c r="E54" t="s">
         <v>39</v>
       </c>
-      <c r="H54" s="7">
+      <c r="H54" s="5">
         <v>3</v>
       </c>
-      <c r="I54" s="7">
+      <c r="I54" s="5">
         <v>3</v>
       </c>
-      <c r="J54" s="7">
+      <c r="J54" s="5">
         <v>3</v>
       </c>
-      <c r="K54" s="7">
+      <c r="K54" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="N54" s="7">
+        <v>20</v>
+      </c>
+      <c r="R54">
+        <v>5</v>
+      </c>
+      <c r="S54">
+        <v>5</v>
+      </c>
+      <c r="U54" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27">
       <c r="A55" t="s">
         <v>111</v>
       </c>
@@ -6301,12 +6412,13 @@
       <c r="E55" t="s">
         <v>39</v>
       </c>
-      <c r="H55" s="7"/>
-      <c r="I55" s="7"/>
-      <c r="J55" s="7"/>
-      <c r="K55" s="7"/>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="N55" s="7"/>
+      <c r="U55" s="7"/>
+      <c r="AA55">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
       <c r="A56" t="s">
         <v>112</v>
       </c>
@@ -6319,20 +6431,32 @@
       <c r="E56" t="s">
         <v>39</v>
       </c>
-      <c r="H56" s="7">
+      <c r="H56" s="5">
         <v>6</v>
       </c>
-      <c r="I56" s="7">
+      <c r="I56" s="5">
         <v>6</v>
       </c>
-      <c r="J56" s="7">
+      <c r="J56" s="5">
         <v>6</v>
       </c>
-      <c r="K56" s="7">
+      <c r="K56" s="5">
         <v>6</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="N56" s="7">
+        <v>100</v>
+      </c>
+      <c r="R56">
+        <v>10</v>
+      </c>
+      <c r="S56">
+        <v>10</v>
+      </c>
+      <c r="U56" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
       <c r="A57" t="s">
         <v>113</v>
       </c>
@@ -6345,12 +6469,19 @@
       <c r="E57" t="s">
         <v>39</v>
       </c>
-      <c r="H57" s="7"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="7"/>
-      <c r="K57" s="7"/>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="N57" s="7"/>
+      <c r="O57">
+        <v>15000</v>
+      </c>
+      <c r="P57">
+        <v>300</v>
+      </c>
+      <c r="S57">
+        <v>12</v>
+      </c>
+      <c r="U57" s="7"/>
+    </row>
+    <row r="58" spans="1:27">
       <c r="A58" t="s">
         <v>114</v>
       </c>
@@ -6363,12 +6494,13 @@
       <c r="E58" t="s">
         <v>39</v>
       </c>
-      <c r="H58" s="7"/>
-      <c r="I58" s="7"/>
-      <c r="J58" s="7"/>
-      <c r="K58" s="7"/>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="N58" s="7"/>
+      <c r="U58" s="7"/>
+      <c r="AA58">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
       <c r="A59" t="s">
         <v>115</v>
       </c>
@@ -6393,8 +6525,20 @@
       <c r="K59" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="N59" s="7">
+        <v>200</v>
+      </c>
+      <c r="R59">
+        <v>20</v>
+      </c>
+      <c r="S59">
+        <v>15</v>
+      </c>
+      <c r="U59" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -6407,8 +6551,10 @@
       <c r="E60" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="N60" s="7"/>
+      <c r="U60" s="7"/>
+    </row>
+    <row r="61" spans="1:27">
       <c r="A61" t="s">
         <v>117</v>
       </c>
@@ -6421,8 +6567,13 @@
       <c r="E61" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="N61" s="7"/>
+      <c r="U61" s="7"/>
+      <c r="AA61">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
       <c r="A62" t="s">
         <v>118</v>
       </c>
@@ -6447,8 +6598,17 @@
       <c r="K62" s="5">
         <v>9</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="N62" s="7">
+        <v>500</v>
+      </c>
+      <c r="O62">
+        <v>40000</v>
+      </c>
+      <c r="U62" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
       <c r="A63" t="s">
         <v>119</v>
       </c>
@@ -6461,8 +6621,16 @@
       <c r="E63" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="N63" s="7"/>
+      <c r="R63">
+        <v>40</v>
+      </c>
+      <c r="S63">
+        <v>20</v>
+      </c>
+      <c r="U63" s="7"/>
+    </row>
+    <row r="64" spans="1:27">
       <c r="A64" t="s">
         <v>120</v>
       </c>
@@ -6475,8 +6643,13 @@
       <c r="E64" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="N64" s="7"/>
+      <c r="U64" s="7"/>
+      <c r="AA64">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:25">
       <c r="A65" t="s">
         <v>121</v>
       </c>
@@ -6498,8 +6671,11 @@
       <c r="L65">
         <v>10</v>
       </c>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="Y65">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:25">
       <c r="A66" t="s">
         <v>124</v>
       </c>
@@ -6521,8 +6697,11 @@
       <c r="L66">
         <v>20</v>
       </c>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="Y66">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:25">
       <c r="A67" t="s">
         <v>126</v>
       </c>
@@ -6544,8 +6723,11 @@
       <c r="L67">
         <v>10</v>
       </c>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="Y67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:25">
       <c r="A68" t="s">
         <v>128</v>
       </c>
@@ -6567,8 +6749,11 @@
       <c r="L68">
         <v>30</v>
       </c>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="Y68">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:25">
       <c r="A69" t="s">
         <v>129</v>
       </c>
@@ -6590,8 +6775,11 @@
       <c r="L69">
         <v>40</v>
       </c>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="Y69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:25">
       <c r="A70" t="s">
         <v>130</v>
       </c>
@@ -6613,8 +6801,11 @@
       <c r="L70">
         <v>50</v>
       </c>
-    </row>
-    <row r="71" spans="1:12">
+      <c r="Y70">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:25">
       <c r="A71" t="s">
         <v>131</v>
       </c>
@@ -6639,8 +6830,11 @@
       <c r="L71">
         <v>80</v>
       </c>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="Y71">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="72" spans="1:25">
       <c r="A72" t="s">
         <v>132</v>
       </c>
@@ -6665,8 +6859,11 @@
       <c r="L72">
         <v>60</v>
       </c>
-    </row>
-    <row r="73" spans="1:12">
+      <c r="Y72">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:25">
       <c r="A73" t="s">
         <v>133</v>
       </c>
@@ -6691,8 +6888,11 @@
       <c r="L73">
         <v>100</v>
       </c>
-    </row>
-    <row r="74" spans="1:12">
+      <c r="Y73">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:25">
       <c r="A74" t="s">
         <v>134</v>
       </c>
@@ -6717,8 +6917,11 @@
       <c r="L74">
         <v>120</v>
       </c>
-    </row>
-    <row r="75" spans="1:12">
+      <c r="Y74">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:25">
       <c r="A75" t="s">
         <v>135</v>
       </c>
@@ -6743,8 +6946,11 @@
       <c r="L75">
         <v>150</v>
       </c>
-    </row>
-    <row r="76" spans="1:12">
+      <c r="Y75">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="76" spans="1:25">
       <c r="A76" t="s">
         <v>136</v>
       </c>
@@ -6763,6 +6969,9 @@
       <c r="F76" t="s">
         <v>137</v>
       </c>
+      <c r="G76" t="s">
+        <v>138</v>
+      </c>
       <c r="H76" s="5">
         <v>2</v>
       </c>
@@ -6778,10 +6987,13 @@
       <c r="L76">
         <v>240</v>
       </c>
-    </row>
-    <row r="77" spans="1:12">
+      <c r="Y76">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:25">
       <c r="A77" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B77" t="s">
         <v>122</v>
@@ -6798,6 +7010,9 @@
       <c r="F77" t="s">
         <v>137</v>
       </c>
+      <c r="G77" t="s">
+        <v>140</v>
+      </c>
       <c r="H77" s="5">
         <v>2</v>
       </c>
@@ -6813,10 +7028,13 @@
       <c r="L77">
         <v>240</v>
       </c>
-    </row>
-    <row r="78" spans="1:12">
+      <c r="Y77">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:25">
       <c r="A78" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B78" t="s">
         <v>122</v>
@@ -6833,6 +7051,9 @@
       <c r="F78" t="s">
         <v>137</v>
       </c>
+      <c r="G78" t="s">
+        <v>142</v>
+      </c>
       <c r="H78" s="5">
         <v>2</v>
       </c>
@@ -6848,9 +7069,12 @@
       <c r="L78">
         <v>240</v>
       </c>
+      <c r="Y78">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="29">
     <mergeCell ref="H1:K1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="O1:U1"/>
@@ -6872,6 +7096,14 @@
     <mergeCell ref="K56:K58"/>
     <mergeCell ref="K59:K61"/>
     <mergeCell ref="K62:K64"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="N56:N58"/>
+    <mergeCell ref="N59:N61"/>
+    <mergeCell ref="N62:N64"/>
+    <mergeCell ref="U54:U55"/>
+    <mergeCell ref="U56:U58"/>
+    <mergeCell ref="U59:U61"/>
+    <mergeCell ref="U62:U64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -6880,6 +7112,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I101"/>
@@ -6896,7 +7144,7 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
@@ -6908,19 +7156,19 @@
         <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G1" t="s">
         <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="I1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -10331,7 +10579,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -10348,7 +10596,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F11"/>
@@ -10490,20 +10738,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/doc/数值设计.xlsx
+++ b/doc/数值设计.xlsx
@@ -473,8 +473,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.000_ "/>
-    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="176" formatCode="0.0_ "/>
+    <numFmt numFmtId="177" formatCode="0.000_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1094,29 +1094,26 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4830,7 +4827,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="J12" sqref="J12"/>
+      <selection pane="topRight" activeCell="V60" sqref="V60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6386,7 +6383,7 @@
       <c r="K54" s="5">
         <v>3</v>
       </c>
-      <c r="N54" s="7">
+      <c r="N54" s="5">
         <v>20</v>
       </c>
       <c r="R54">
@@ -6395,7 +6392,7 @@
       <c r="S54">
         <v>5</v>
       </c>
-      <c r="U54" s="7">
+      <c r="U54" s="5">
         <v>10</v>
       </c>
     </row>
@@ -6412,8 +6409,8 @@
       <c r="E55" t="s">
         <v>39</v>
       </c>
-      <c r="N55" s="7"/>
-      <c r="U55" s="7"/>
+      <c r="N55" s="5"/>
+      <c r="U55" s="5"/>
       <c r="AA55">
         <v>50</v>
       </c>
@@ -6443,7 +6440,7 @@
       <c r="K56" s="5">
         <v>6</v>
       </c>
-      <c r="N56" s="7">
+      <c r="N56" s="5">
         <v>100</v>
       </c>
       <c r="R56">
@@ -6452,7 +6449,7 @@
       <c r="S56">
         <v>10</v>
       </c>
-      <c r="U56" s="7">
+      <c r="U56" s="5">
         <v>20</v>
       </c>
     </row>
@@ -6469,7 +6466,7 @@
       <c r="E57" t="s">
         <v>39</v>
       </c>
-      <c r="N57" s="7"/>
+      <c r="N57" s="5"/>
       <c r="O57">
         <v>15000</v>
       </c>
@@ -6479,7 +6476,7 @@
       <c r="S57">
         <v>12</v>
       </c>
-      <c r="U57" s="7"/>
+      <c r="U57" s="5"/>
     </row>
     <row r="58" spans="1:27">
       <c r="A58" t="s">
@@ -6494,8 +6491,8 @@
       <c r="E58" t="s">
         <v>39</v>
       </c>
-      <c r="N58" s="7"/>
-      <c r="U58" s="7"/>
+      <c r="N58" s="5"/>
+      <c r="U58" s="5"/>
       <c r="AA58">
         <v>100</v>
       </c>
@@ -6525,7 +6522,7 @@
       <c r="K59" s="5">
         <v>8</v>
       </c>
-      <c r="N59" s="7">
+      <c r="N59" s="5">
         <v>200</v>
       </c>
       <c r="R59">
@@ -6534,11 +6531,11 @@
       <c r="S59">
         <v>15</v>
       </c>
-      <c r="U59" s="7">
+      <c r="U59" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="60" spans="1:21">
+    <row r="60" spans="1:22">
       <c r="A60" t="s">
         <v>116</v>
       </c>
@@ -6551,8 +6548,11 @@
       <c r="E60" t="s">
         <v>39</v>
       </c>
-      <c r="N60" s="7"/>
-      <c r="U60" s="7"/>
+      <c r="N60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60">
+        <v>20</v>
+      </c>
     </row>
     <row r="61" spans="1:27">
       <c r="A61" t="s">
@@ -6567,8 +6567,8 @@
       <c r="E61" t="s">
         <v>39</v>
       </c>
-      <c r="N61" s="7"/>
-      <c r="U61" s="7"/>
+      <c r="N61" s="5"/>
+      <c r="U61" s="5"/>
       <c r="AA61">
         <v>120</v>
       </c>
@@ -6598,13 +6598,13 @@
       <c r="K62" s="5">
         <v>9</v>
       </c>
-      <c r="N62" s="7">
+      <c r="N62" s="5">
         <v>500</v>
       </c>
       <c r="O62">
         <v>40000</v>
       </c>
-      <c r="U62" s="7">
+      <c r="U62" s="5">
         <v>40</v>
       </c>
     </row>
@@ -6621,14 +6621,14 @@
       <c r="E63" t="s">
         <v>39</v>
       </c>
-      <c r="N63" s="7"/>
+      <c r="N63" s="5"/>
       <c r="R63">
         <v>40</v>
       </c>
       <c r="S63">
         <v>20</v>
       </c>
-      <c r="U63" s="7"/>
+      <c r="U63" s="5"/>
     </row>
     <row r="64" spans="1:27">
       <c r="A64" t="s">
@@ -6643,8 +6643,8 @@
       <c r="E64" t="s">
         <v>39</v>
       </c>
-      <c r="N64" s="7"/>
-      <c r="U64" s="7"/>
+      <c r="N64" s="5"/>
+      <c r="U64" s="5"/>
       <c r="AA64">
         <v>150</v>
       </c>

--- a/doc/数值设计.xlsx
+++ b/doc/数值设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowHeight="17940" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="装备" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="人物成长" sheetId="2" r:id="rId3"/>
     <sheet name="武器熟练度" sheetId="3" r:id="rId4"/>
     <sheet name="用于计算" sheetId="4" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="148">
   <si>
     <t xml:space="preserve">四围 </t>
   </si>
@@ -473,8 +474,8 @@
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0_ "/>
-    <numFmt numFmtId="177" formatCode="0.000_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1098,16 +1099,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -4824,10 +4825,10 @@
   <sheetPr/>
   <dimension ref="A1:AC78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="V60" sqref="V60"/>
+      <selection pane="topRight" activeCell="A78" sqref="A3:A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -10738,4 +10739,404 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q39" sqref="Q39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1">
+      <c r="A56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1">
+      <c r="A57" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1">
+      <c r="A58" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1">
+      <c r="A59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1">
+      <c r="A60" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1">
+      <c r="A61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1">
+      <c r="A62" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1">
+      <c r="A63" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1">
+      <c r="A67" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1">
+      <c r="A68" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1">
+      <c r="A69" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1">
+      <c r="A70" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1">
+      <c r="A71" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1">
+      <c r="A73" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1">
+      <c r="A74" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1">
+      <c r="A75" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1">
+      <c r="A76" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A1:A76">
+    <sortCondition ref="A1"/>
+  </sortState>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>